--- a/dist/document/dest/2020/10/doctors/148.xlsx
+++ b/dist/document/dest/2020/10/doctors/148.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>300</v>
       </c>
-      <c r="C2" s="1">
-        <v>1552500</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>350</v>
       </c>
-      <c r="C3" s="1">
-        <v>805000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>90</v>
       </c>
-      <c r="C4" s="1">
-        <v>517500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>210</v>
       </c>
-      <c r="C5" s="1">
-        <v>1732500</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>493</v>
       </c>
-      <c r="C6" s="1">
-        <v>3796100</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>630</v>
       </c>
-      <c r="C7" s="1">
-        <v>1883700</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>30</v>
       </c>
-      <c r="C8" s="1">
-        <v>207900</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>14</v>
       </c>
-      <c r="C9" s="1">
-        <v>52290</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>600</v>
       </c>
-      <c r="C10" s="1">
-        <v>8415000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>285</v>
       </c>
-      <c r="C11" s="1">
-        <v>2053425</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>990</v>
       </c>
-      <c r="C12" s="1">
-        <v>6751800</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>180</v>
       </c>
-      <c r="C13" s="1">
-        <v>1178100</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>495</v>
       </c>
-      <c r="C14" s="1">
-        <v>121275</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>180</v>
       </c>
-      <c r="C15" s="1">
-        <v>600300</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>60</v>
       </c>
-      <c r="C16" s="1">
-        <v>64800</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>12000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>301</v>
       </c>
-      <c r="C18" s="1">
-        <v>3575880</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>376</v>
       </c>
-      <c r="C19" s="1">
-        <v>5997200</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>620</v>
       </c>
-      <c r="C20" s="1">
-        <v>9548000</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>420</v>
       </c>
-      <c r="C21" s="1">
-        <v>2028600</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>360</v>
       </c>
-      <c r="C22" s="1">
-        <v>1863000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>60</v>
       </c>
-      <c r="C23" s="1">
-        <v>248400</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>390</v>
       </c>
-      <c r="C24" s="1">
-        <v>3217500</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>60</v>
       </c>
-      <c r="C25" s="1">
-        <v>255000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>30</v>
       </c>
-      <c r="C26" s="1">
-        <v>122700</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>300</v>
       </c>
-      <c r="C27" s="1">
-        <v>462000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>476</v>
       </c>
-      <c r="C28" s="1">
-        <v>8377600</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>180</v>
       </c>
-      <c r="C29" s="1">
-        <v>3564000</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>540</v>
       </c>
-      <c r="C30" s="1">
-        <v>8424000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>11120</v>
       </c>
-      <c r="C31" s="1">
-        <v>159016000</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>240</v>
       </c>
-      <c r="C32" s="1">
-        <v>828000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>270</v>
       </c>
-      <c r="C33" s="1">
-        <v>990900</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>435</v>
       </c>
-      <c r="C34" s="1">
-        <v>550275</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>360</v>
       </c>
-      <c r="C35" s="1">
-        <v>662400</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>60</v>
       </c>
-      <c r="C36" s="1">
-        <v>241500</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>270</v>
       </c>
-      <c r="C37" s="1">
-        <v>3415500</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>218</v>
       </c>
-      <c r="C38" s="1">
-        <v>1002800</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>30</v>
       </c>
-      <c r="C39" s="1">
-        <v>228300</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>2350</v>
       </c>
-      <c r="C40" s="1">
-        <v>9729000</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>240</v>
       </c>
-      <c r="C41" s="1">
-        <v>966000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>210</v>
       </c>
-      <c r="C42" s="1">
-        <v>3811500</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>120</v>
       </c>
-      <c r="C43" s="1">
-        <v>858000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>180</v>
       </c>
-      <c r="C44" s="1">
-        <v>1584000</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>1410</v>
       </c>
-      <c r="C45" s="1">
-        <v>4378050</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>645</v>
       </c>
-      <c r="C46" s="1">
-        <v>7024050</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>60</v>
       </c>
-      <c r="C47" s="1">
-        <v>310500</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>2040</v>
       </c>
-      <c r="C48" s="1">
-        <v>15483600</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>90</v>
       </c>
-      <c r="C49" s="1">
-        <v>310500</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>420</v>
       </c>
-      <c r="C50" s="1">
-        <v>821100</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>14</v>
       </c>
-      <c r="C51" s="1">
-        <v>1155000</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>120</v>
       </c>
-      <c r="C52" s="1">
-        <v>1056000</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>30</v>
       </c>
-      <c r="C53" s="1">
-        <v>541200</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>90</v>
       </c>
-      <c r="C54" s="1">
-        <v>772200</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>180</v>
       </c>
-      <c r="C55" s="1">
-        <v>1754280</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>90</v>
       </c>
-      <c r="C56" s="1">
-        <v>1589400</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>120</v>
       </c>
-      <c r="C57" s="1">
-        <v>579600</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>300</v>
       </c>
-      <c r="C58" s="1">
-        <v>1587000</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>180</v>
       </c>
-      <c r="C59" s="1">
-        <v>4950000</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>15</v>
       </c>
-      <c r="C60" s="1">
-        <v>145200</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1054,7 +877,7 @@
         <v>30957</v>
       </c>
       <c r="C61" s="1">
-        <v>303769925</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/148.xlsx
+++ b/dist/document/dest/2020/10/doctors/148.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,487 +402,1544 @@
         <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B2" s="1">
-        <v>300</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>310500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alphachymotrypsin BVP 8400</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B3" s="1">
-        <v>350</v>
+        <v>180</v>
+      </c>
+      <c r="C3" s="1">
+        <v>931500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Anbach (Ginkgo biloba 80mg)</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B4" s="1">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>310500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B5" s="1">
-        <v>210</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>493</v>
+        <v>120</v>
+      </c>
+      <c r="C6" s="1">
+        <v>778800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Apbezo (Rabeprazole 20mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>630</v>
+        <v>120</v>
+      </c>
+      <c r="C7" s="1">
+        <v>990000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Benzatique (Nebivolol 5mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B8" s="1">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>53900</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B9" s="1">
-        <v>14</v>
+        <v>233</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1794100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B10" s="1">
-        <v>600</v>
+        <v>90</v>
+      </c>
+      <c r="C10" s="1">
+        <v>693000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B11" s="1">
-        <v>285</v>
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Cilavef (Celecoxib 200mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B12" s="1">
-        <v>990</v>
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>180</v>
+        <v>44</v>
+      </c>
+      <c r="C13" s="1">
+        <v>164340</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>495</v>
+        <v>90</v>
+      </c>
+      <c r="C14" s="1">
+        <v>196650</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>180</v>
+        <v>90</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1262250</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Doxycyclin 100mg</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1683000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Enpovid AD (Vitamin AD)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="1">
+        <v>841500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Esotrax (Esomeprazole 20mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>301</v>
+        <v>60</v>
+      </c>
+      <c r="C18" s="1">
+        <v>432300</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>376</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="1">
+        <v>864600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Febuxotid VK (Febuxostat 40mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>620</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>216150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Fenafex (Fexofenadine 180mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>420</v>
+        <v>90</v>
+      </c>
+      <c r="C21" s="1">
+        <v>648450</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>360</v>
+        <v>230</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1657150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Flodilan-4 (Glimepirid)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="C23" s="1">
+        <v>864600</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+        <v>Chondrasil (Allopurinol 300mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>390</v>
+        <v>45</v>
+      </c>
+      <c r="C24" s="1">
+        <v>191475</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Glucophage 1000mg (Metformin)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="C25" s="1">
+        <v>613800</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Glucophage 850mg (Metformin)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="1">
+        <v>409200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Herbesser 30mg (Diltiazem)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>300</v>
+        <v>240</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1636800</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Cilavef (Celecoxib 200mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>476</v>
+        <v>150</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1023000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B29" s="1">
-        <v>180</v>
+        <v>90</v>
+      </c>
+      <c r="C29" s="1">
+        <v>324900</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Ketosteril</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>540</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7350</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Ketovital</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>11120</v>
+        <v>60</v>
+      </c>
+      <c r="C31" s="1">
+        <v>14700</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>240</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7350</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>270</v>
+        <v>210</v>
+      </c>
+      <c r="C33" s="1">
+        <v>51450</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>435</v>
+        <v>60</v>
+      </c>
+      <c r="C34" s="1">
+        <v>14700</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>360</v>
+        <v>75</v>
+      </c>
+      <c r="C35" s="1">
+        <v>18375</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Nevol (Nebivolol 2.5mg)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="C36" s="1">
+        <v>400200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v>Esotrax (Esomeprazole 20mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>270</v>
+        <v>410</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4870800</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Esotrax (Esomeprazole 20mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>218</v>
+        <v>60</v>
+      </c>
+      <c r="C38" s="1">
+        <v>712800</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B39" s="1">
         <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>478500</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Pharcotinex</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B40" s="1">
-        <v>2350</v>
+        <v>180</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2871000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>240</v>
+        <v>30</v>
+      </c>
+      <c r="C41" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Prorid (Finasteride 5 mg)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>210</v>
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>123200</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Rotalzon (Losartan 50mg)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>120</v>
+        <v>330</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5082000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>180</v>
+        <v>60</v>
+      </c>
+      <c r="C44" s="1">
+        <v>924000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Strecalis (Eperisone 50mg)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>1410</v>
+        <v>30</v>
+      </c>
+      <c r="C45" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>645</v>
+        <v>45</v>
+      </c>
+      <c r="C46" s="1">
+        <v>693000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>144900</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>2040</v>
+        <v>150</v>
+      </c>
+      <c r="C48" s="1">
+        <v>724500</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Triglo (Fenofibrate 200mg)</v>
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
       </c>
       <c r="B49" s="1">
-        <v>90</v>
+        <v>240</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1242000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
       </c>
       <c r="B50" s="1">
-        <v>420</v>
+        <v>30</v>
+      </c>
+      <c r="C50" s="1">
+        <v>155250</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
       </c>
       <c r="B51" s="1">
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="C51" s="1">
+        <v>495000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
       </c>
       <c r="B52" s="1">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="C52" s="1">
+        <v>495000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
+        <v>Glucophage 850mg (Metformin)</v>
       </c>
       <c r="B53" s="1">
         <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>122700</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B54" s="1">
-        <v>90</v>
+        <v>28</v>
+      </c>
+      <c r="C54" s="1">
+        <v>492800</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Vocfor (Lornoxicam 4mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B55" s="1">
-        <v>180</v>
+        <v>112</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1971200</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Xatral XL(Alfuzosine 10mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B56" s="1">
-        <v>90</v>
+        <v>70</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1232000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B57" s="1">
-        <v>120</v>
+        <v>56</v>
+      </c>
+      <c r="C57" s="1">
+        <v>985600</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="C58" s="1">
+        <v>594000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Zinecox (Cefditoren 200mg)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>180</v>
+        <v>45</v>
+      </c>
+      <c r="C59" s="1">
+        <v>891000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C60" s="1">
+        <v>594000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>30</v>
+      </c>
+      <c r="C61" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Ketosteril</v>
+      </c>
+      <c r="B62" s="1">
+        <v>180</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2808000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B63" s="1">
+        <v>240</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3432000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B64" s="1">
+        <v>240</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3432000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B65" s="1">
+        <v>210</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3003000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B66" s="1">
+        <v>740</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10582000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B67" s="1">
+        <v>240</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3432000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B68" s="1">
+        <v>420</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6006000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4110</v>
+      </c>
+      <c r="C69" s="1">
+        <v>58773000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B70" s="1">
+        <v>540</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7722000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1034</v>
+      </c>
+      <c r="C71" s="1">
+        <v>14786200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B72" s="1">
+        <v>300</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4290000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>160</v>
+      </c>
+      <c r="C73" s="1">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>180</v>
+      </c>
+      <c r="C74" s="1">
+        <v>660600</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>90</v>
+      </c>
+      <c r="C75" s="1">
+        <v>330300</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1">
+        <v>55050</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>60</v>
+      </c>
+      <c r="C77" s="1">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45</v>
+      </c>
+      <c r="C78" s="1">
+        <v>56925</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>150</v>
+      </c>
+      <c r="C79" s="1">
+        <v>189750</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>30</v>
+      </c>
+      <c r="C80" s="1">
+        <v>37950</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>90</v>
+      </c>
+      <c r="C81" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>60</v>
+      </c>
+      <c r="C82" s="1">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>105</v>
+      </c>
+      <c r="C83" s="1">
+        <v>193200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>30</v>
+      </c>
+      <c r="C84" s="1">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>44</v>
+      </c>
+      <c r="C85" s="1">
+        <v>556600</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>210</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2656500</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>60</v>
+      </c>
+      <c r="C88" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>90</v>
+      </c>
+      <c r="C89" s="1">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>238</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1094800</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>30</v>
+      </c>
+      <c r="C91" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B92" s="1">
+        <v>240</v>
+      </c>
+      <c r="C92" s="1">
+        <v>993600</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B93" s="1">
+        <v>120</v>
+      </c>
+      <c r="C93" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B94" s="1">
+        <v>120</v>
+      </c>
+      <c r="C94" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4968000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B96" s="1">
+        <v>240</v>
+      </c>
+      <c r="C96" s="1">
+        <v>993600</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B97" s="1">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1">
+        <v>115920</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B98" s="1">
+        <v>180</v>
+      </c>
+      <c r="C98" s="1">
+        <v>745200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B99" s="1">
+        <v>300</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1242000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>300</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1207500</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>120</v>
+      </c>
+      <c r="C101" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>60</v>
+      </c>
+      <c r="C102" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>30</v>
+      </c>
+      <c r="C103" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>170</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3085500</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B105" s="1">
+        <v>60</v>
+      </c>
+      <c r="C105" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B106" s="1">
+        <v>300</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2640000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B107" s="1">
+        <v>90</v>
+      </c>
+      <c r="C107" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B108" s="1">
+        <v>60</v>
+      </c>
+      <c r="C108" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1">
+        <v>359400</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1">
+        <v>359400</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>120</v>
+      </c>
+      <c r="C111" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>240</v>
+      </c>
+      <c r="C112" s="1">
+        <v>745200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>90</v>
+      </c>
+      <c r="C113" s="1">
+        <v>279450</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>560</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1738800</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>150</v>
+      </c>
+      <c r="C115" s="1">
+        <v>465750</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>120</v>
+      </c>
+      <c r="C116" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>60</v>
+      </c>
+      <c r="C117" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>60</v>
+      </c>
+      <c r="C118" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>60</v>
+      </c>
+      <c r="C119" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>30</v>
+      </c>
+      <c r="C120" s="1">
+        <v>227700</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>90</v>
+      </c>
+      <c r="C121" s="1">
+        <v>683100</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>15</v>
+      </c>
+      <c r="C122" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>510</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3870900</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>150</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>270</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2049300</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>30</v>
+      </c>
+      <c r="C126" s="1">
+        <v>227700</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>30</v>
+      </c>
+      <c r="C127" s="1">
+        <v>227700</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Trajenta 5mg (Linagliptin)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>50</v>
+      </c>
+      <c r="C128" s="1">
+        <v>888500</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>30</v>
+      </c>
+      <c r="C129" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45</v>
+      </c>
+      <c r="C130" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Triglo (Fenofibrate 200mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>90</v>
+      </c>
+      <c r="C131" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>60</v>
+      </c>
+      <c r="C132" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>36</v>
+      </c>
+      <c r="C133" s="1">
+        <v>316800</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>60</v>
+      </c>
+      <c r="C134" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>30</v>
+      </c>
+      <c r="C136" s="1">
+        <v>541200</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>60</v>
+      </c>
+      <c r="C137" s="1">
+        <v>584760</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>120</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1169520</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Zinecox (Cefditoren 200mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>120</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Zinecox (Cefditoren 200mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>60</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B61" s="1">
-        <v>30957</v>
-      </c>
-      <c r="C61" s="1">
-        <v>NaN</v>
+      <c r="B141" s="1">
+        <v>22547</v>
+      </c>
+      <c r="C141" s="1">
+        <v>219996715</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C141"/>
   </ignoredErrors>
 </worksheet>
 </file>